--- a/src/pages/data/data_dia_2024.xlsx
+++ b/src/pages/data/data_dia_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\dia_media_la_2024\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\Proyect_multi_page\src\pages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1EC954-80B0-4CD6-857C-4E558E0087CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE33713-D912-4866-B300-568C29DC986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dia_mat" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,16 +1212,30 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D17" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.69697878787878775</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.45757575757575758</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.32901515151515154</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.36363939393939404</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,16 +1248,30 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D18" s="8">
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.50613783783783783</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.37027027027027026</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.38224324324324316</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.41891351351351347</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,16 +1284,30 @@
       <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D19" s="8">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.54544473684210515</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.34342105263157896</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.34211578947368421</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.38157368421052629</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,16 +1320,30 @@
       <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D20" s="8">
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.51197105263157894</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.46842105263157896</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.35338947368421048</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.37280263157894744</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,16 +1356,30 @@
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D21" s="8">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.39302941176470585</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.32205882352941173</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.29412058823529419</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.28431470588235291</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,16 +1392,30 @@
       <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D22" s="8">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.50957105263157898</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.28573157894736834</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.35526578947368415</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,16 +1428,30 @@
       <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.30907666666666672</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.22381333333333334</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.3111133333333333</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,16 +1464,30 @@
       <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D24" s="8">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.33730263157894741</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.2868421052631579</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.27444210526315793</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.35964999999999991</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,16 +1500,30 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D25" s="8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.38889047619047618</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.25596190476190478</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.2698523809523809</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.307</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,16 +1536,30 @@
       <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D26" s="8">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.39284761904761906</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.32380952380952377</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,16 +1572,30 @@
       <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.20487500000000008</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.24305416666666663</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.249</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,16 +1608,30 @@
       <c r="C28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D28" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.47500500000000001</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.37291500000000005</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.266675</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,16 +1644,30 @@
       <c r="C29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D29" s="8">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.31730384615384616</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.25320384615384622</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.25639999999999996</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,16 +1680,30 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D30" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.61389000000000005</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.40694333333333332</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.27778666666666668</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.39333333333333337</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,16 +1716,30 @@
       <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.54166999999999998</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.38472333333333331</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.37221666666666664</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,37 +1838,37 @@
       <c r="C34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65700115750425347</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31929631221426891</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="1"/>
+        <v>2.370253028147765E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47618902222902609</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36190696607105272</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31060890796193036</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35590913149146891</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.376</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,37 +1881,37 @@
       <c r="C35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72579801151229728</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.26739926739926739</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8027210884353739E-3</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42565813448456308</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30578891679748832</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27826994897959179</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3367974882260597</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33700000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1716,8 +1926,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,15 +2479,27 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D17" s="8">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.61083448275862084</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,15 +2512,27 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D18" s="8">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.65872500000000012</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.54583333333333339</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,15 +2545,27 @@
       <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D19" s="8">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.93918918918918914</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.6241945945945947</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.54594594594594592</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,15 +2578,27 @@
       <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D20" s="8">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.92647058823529405</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.59944117647058826</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.50882352941176467</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,15 +2611,27 @@
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D21" s="8">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.75757575757575746</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.60028181818181825</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,15 +2644,27 @@
       <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D22" s="8">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.61778157894736863</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.54605263157894735</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,15 +2677,27 @@
       <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D23" s="8">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="F23" s="8">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.81896551724137934</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.48768275862068977</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.39137931034482759</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,15 +2710,27 @@
       <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D24" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="F24" s="8">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.76515151515151514</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.47330606060606051</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.34848484848484851</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,15 +2743,27 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D25" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.66667499999999991</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,15 +2776,27 @@
       <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D26" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.56770833333333337</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.58900833333333347</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.629</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,15 +2809,27 @@
       <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D27" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.50625999999999993</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.40909499999999993</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,15 +2842,27 @@
       <c r="C28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D28" s="8">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="F28" s="8">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.42130000000000012</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.48653703703703705</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.497</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,15 +2875,27 @@
       <c r="C29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D29" s="8">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.49860333333333323</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.43029999999999996</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,15 +2908,27 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D30" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.71969333333333352</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,15 +2941,27 @@
       <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D31" s="8">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.89516129032258063</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.63575806451612904</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.70235806451612925</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,33 +3052,33 @@
       <c r="C34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.18494927392186386</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.67510787565567643</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13994285042245969</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8685300433984311</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58403093377246762</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.48147195093239054</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2701,37 +3091,40 @@
       <c r="C35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.22019542584058713</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66538231780167256</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11442225635774024</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.75674923195084498</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54436139016897078</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.57195239545997623</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.624</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2:J24" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/src/pages/data/data_dia_2024.xlsx
+++ b/src/pages/data/data_dia_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\Proyect_multi_page\src\pages\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE33713-D912-4866-B300-568C29DC986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5EE33713-D912-4866-B300-568C29DC986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F563BE1-97E8-4E9B-B701-58AA8849B36A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dia_mat" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="data_dia_diag_len" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">data_dia_mat!$A$1:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">data_dia_mat!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="38">
   <si>
     <t>CURSO</t>
   </si>
@@ -151,6 +151,9 @@
   <si>
     <t>FIN</t>
   </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +197,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +319,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,6 +337,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,1309 +631,2769 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="B2" s="7">
+        <v>2024</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>0.64864864864864868</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>0.32432432432432434</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>0.61179729729729726</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>0.32972972972972975</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>0.23167567567567571</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>0.29279189189189186</v>
       </c>
-      <c r="K2" s="8">
-        <f>IFERROR(ROUND(AVERAGE(G2:J2),3),"")</f>
+      <c r="L2" s="8">
+        <f>IFERROR(ROUND(AVERAGE(H2:K2),3),"")</f>
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
+      <c r="B3" s="7">
+        <v>2024</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>0.31578947368421051</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>0.60287368421052634</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>0.30394736842105263</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>0.3345921052631578</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>0.26754473684210522</v>
       </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K35" si="0">IFERROR(ROUND(AVERAGE(G3:J3),3),"")</f>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L35" si="0">IFERROR(ROUND(AVERAGE(H3:K3),3),"")</f>
         <v>0.377</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
+      <c r="B4" s="7">
+        <v>2024</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>0.63414634146341464</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>0.36585365853658536</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
       <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>0.64746097560975624</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>0.22926829268292681</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>0.24565853658536582</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>0.2601731707317072</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
+      <c r="B5" s="7">
+        <v>2024</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>0.95121951219512191</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
       <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.38801951219512182</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0.22682926829268293</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>0.14112926829268294</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>0.22358292682926828</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
+      <c r="B6" s="7">
+        <v>2024</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
       <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.32322222222222213</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>0.34444444444444444</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>0.15476666666666666</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>0.32870277777777773</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+      <c r="B7" s="7">
+        <v>2024</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>0.9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>0.1</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
       <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.37953250000000005</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>0.20250000000000001</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>0.1553725</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>0.2916725</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
+      <c r="B8" s="7">
+        <v>2024</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>0.91428571428571426</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
       <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.2908885714285715</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>0.36571428571428571</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>0.14899714285714286</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>0.26666857142857142</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
+      <c r="B9" s="7">
+        <v>2024</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>0.97435897435897434</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
       <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>0.4265692307692307</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>0.12564102564102564</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>5.8615384615384604E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>8.1200000000000008E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+      <c r="B10" s="7">
+        <v>2024</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>0.65625</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>0.34375</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
       <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>0.63542500000000013</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>0.27865624999999999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>0.22916249999999999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>0.3</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+      <c r="B11" s="7">
+        <v>2024</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>0.90322580645161288</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
       <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>0.60751935483870956</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>0.21908709677419355</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>0.15054838709677423</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>0.2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
+      <c r="B12" s="7">
+        <v>2024</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>0.84</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>0.16</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
       <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>0.37</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>0.35499999999999998</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>0.18667600000000004</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>0.38400000000000001</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
+      <c r="B13" s="7">
+        <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>0.86206896551724133</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>0.13793103448275862</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
       <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <v>0.59482758620689657</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>0.21263793103448284</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>0.17241724137931033</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>0.19310344827586207</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
+      <c r="B14" s="7">
+        <v>2024</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <v>0.32575454545454541</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>0.29734090909090916</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>0.1969727272727273</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>0.31818181818181818</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
+      <c r="B15" s="7">
+        <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>0.81818181818181823</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>0.18181818181818182</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
       <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>0.62121818181818189</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>0.20454545454545453</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>0.18686969696969696</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>0.34545454545454546</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
+      <c r="B16" s="7">
+        <v>2024</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>0.68965517241379315</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>0.31034482758620691</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
       <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <v>0.73850344827586201</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>0.24425517241379302</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>0.22413793103448282</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>0.28275862068965518</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <f t="shared" si="0"/>
         <v>0.372</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
+      <c r="B17" s="7">
+        <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>0.63636363636363635</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>0.69697878787878775</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>0.45757575757575758</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>0.32901515151515154</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>0.36363939393939404</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
+      <c r="B18" s="7">
+        <v>2024</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>0.56756756756756754</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>0.3783783783783784</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>0.50613783783783783</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>0.37027027027027026</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>0.38224324324324316</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>0.41891351351351347</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="0"/>
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
+      <c r="B19" s="7">
+        <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>0.63157894736842102</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>0.31578947368421051</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>0.54544473684210515</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>0.34342105263157896</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>0.34211578947368421</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>0.38157368421052629</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
+      <c r="B20" s="7">
+        <v>2024</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>0.44736842105263158</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>0.55263157894736847</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
       <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
         <v>0.51197105263157894</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>0.46842105263157896</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>0.35338947368421048</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>0.37280263157894744</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
+      <c r="B21" s="7">
+        <v>2024</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>0.82352941176470584</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>0.17647058823529413</v>
       </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
       <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <v>0.39302941176470585</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>0.32205882352941173</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>0.29412058823529419</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>0.28431470588235291</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
+      <c r="B22" s="7">
+        <v>2024</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>0.68421052631578949</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>0.26315789473684209</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>0.50957105263157898</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>0.4</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>0.28573157894736834</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>0.35526578947368415</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
+      <c r="B23" s="7">
+        <v>2024</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>0.9</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>0.1</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
       <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
         <v>0.30907666666666672</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>0.24666666666666667</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>0.22381333333333334</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>0.3111133333333333</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
+      <c r="B24" s="7">
+        <v>2024</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>0.86842105263157898</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>0.13157894736842105</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
       <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <v>0.33730263157894741</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>0.2868421052631579</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>0.27444210526315793</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>0.35964999999999991</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <f t="shared" si="0"/>
         <v>0.315</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
+      <c r="B25" s="7">
+        <v>2024</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>0.8571428571428571</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>0.38889047619047618</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>0.25596190476190478</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>0.2698523809523809</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>0.31428571428571428</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <f t="shared" si="0"/>
         <v>0.307</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
+      <c r="B26" s="7">
+        <v>2024</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>0.76190476190476186</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>0.23809523809523808</v>
       </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
       <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <v>0.39284761904761906</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>0.26190000000000002</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>0.26190476190476192</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>0.32380952380952377</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>21</v>
+      <c r="B27" s="7">
+        <v>2024</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
       <c r="F27" s="8">
         <v>0</v>
       </c>
       <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <v>0.25</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>0.20487500000000008</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>0.24305416666666663</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>0.3</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <f t="shared" si="0"/>
         <v>0.249</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
+      <c r="B28" s="7">
+        <v>2024</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>0.6</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>0.4</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
       <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <v>0.47500500000000001</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>0.37291500000000005</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>0.266675</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>0.36</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <f t="shared" si="0"/>
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>21</v>
+      <c r="B29" s="7">
+        <v>2024</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>0.96153846153846156</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
       <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>0.31730384615384616</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>0.25320384615384622</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>0.25639999999999996</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>0.34615384615384615</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <f t="shared" si="0"/>
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>21</v>
+      <c r="B30" s="7">
+        <v>2024</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>0.4</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>0.6</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
       <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
         <v>0.61389000000000005</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>0.40694333333333332</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>0.27778666666666668</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>0.39333333333333337</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <f t="shared" si="0"/>
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>21</v>
+      <c r="B31" s="7">
+        <v>2024</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.5</v>
       </c>
       <c r="E31" s="8">
         <v>0.5</v>
       </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <v>0.54166999999999998</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>0.38472333333333331</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>0.37221666666666664</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>0.32</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
+      <c r="B32" s="7">
+        <v>2024</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32:J35" si="1">IFERROR(AVERAGEIFS(D$2:D$31,$B$2:$B$31,$B32,$C$2:$C$31,$C32),"")</f>
+      <c r="E32" s="8">
+        <f t="shared" ref="E32:K35" si="1">IFERROR(AVERAGEIFS(E$2:E$31,$C$2:$C$31,$C32,$D$2:$D$31,$D32),"")</f>
         <v>0.81789087840114805</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <f t="shared" si="1"/>
         <v>0.17215179585205259</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>9.9573257467994308E-3</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="1"/>
         <v>0.4587954992165908</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="1"/>
         <v>0.26600930186576849</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <f t="shared" si="1"/>
         <v>0.18385090999450951</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="1"/>
         <v>0.25154207193766526</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>21</v>
+      <c r="B33" s="7">
+        <v>2024</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <f t="shared" si="1"/>
         <v>0.82419739465206654</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <f t="shared" si="1"/>
         <v>0.17580260534793352</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="G33" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="1"/>
         <v>0.55617830237059929</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <f t="shared" si="1"/>
         <v>0.25878897340840473</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <f t="shared" si="1"/>
         <v>0.19239778339328456</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <f t="shared" si="1"/>
         <v>0.2890712046574116</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <f t="shared" si="0"/>
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
+      <c r="B34" s="7">
+        <v>2024</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="1"/>
         <v>0.65700115750425347</v>
       </c>
-      <c r="E34" s="8">
+      <c r="F34" s="8">
         <f t="shared" si="1"/>
         <v>0.31929631221426891</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="1"/>
         <v>2.370253028147765E-2</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="1"/>
         <v>0.47618902222902609</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <f t="shared" si="1"/>
         <v>0.36190696607105272</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="1"/>
         <v>0.31060890796193036</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <f t="shared" si="1"/>
         <v>0.35590913149146891</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <f t="shared" si="0"/>
         <v>0.376</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
+      <c r="B35" s="7">
+        <v>2024</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <f t="shared" si="1"/>
         <v>0.72579801151229728</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>0.26739926739926739</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <f t="shared" si="1"/>
         <v>6.8027210884353739E-3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <f t="shared" si="1"/>
         <v>0.42565813448456308</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <f t="shared" si="1"/>
         <v>0.30578891679748832</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <f t="shared" si="1"/>
         <v>0.27826994897959179</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <f t="shared" si="1"/>
         <v>0.3367974882260597</v>
       </c>
-      <c r="K35" s="8">
-        <f t="shared" si="0"/>
+      <c r="L35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.61179729729729726</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.32972972972972975</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.23167567567567571</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.29279189189189186</v>
+      </c>
+      <c r="L36" s="8">
+        <f>IFERROR(ROUND(AVERAGE(H36:K36),3),"")</f>
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G37" s="8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.60287368421052634</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.30394736842105263</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.3345921052631578</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.26754473684210522</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" ref="L37:L69" si="2">IFERROR(ROUND(AVERAGE(H37:K37),3),"")</f>
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.64746097560975624</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.22926829268292681</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.24565853658536582</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.2601731707317072</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.38801951219512182</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.22682926829268293</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.14112926829268294</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.22358292682926828</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.32322222222222213</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.15476666666666666</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0.32870277777777773</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.37953250000000005</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.1553725</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0.2916725</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.2908885714285715</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.36571428571428571</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.14899714285714286</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0.26666857142857142</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.4265692307692307</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.12564102564102564</v>
+      </c>
+      <c r="J43" s="8">
+        <v>5.8615384615384604E-2</v>
+      </c>
+      <c r="K43" s="8">
+        <v>8.1200000000000008E-2</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.63542500000000013</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.27865624999999999</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.22916249999999999</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="2"/>
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="F45" s="8">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.60751935483870956</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.21908709677419355</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.15054838709677423</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="2"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.18667600000000004</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.59482758620689657</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.21263793103448284</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.17241724137931033</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0.19310344827586207</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="2"/>
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.32575454545454541</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.29734090909090916</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.1969727272727273</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.62121818181818189</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.20454545454545453</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.18686969696969696</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.73850344827586201</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.24425517241379302</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.22413793103448282</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0.28275862068965518</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="2"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G51" s="8">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.69697878787878775</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.45757575757575758</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.32901515151515154</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0.36363939393939404</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="2"/>
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="G52" s="8">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.50613783783783783</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.37027027027027026</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.38224324324324316</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0.41891351351351347</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="2"/>
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G53" s="8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.54544473684210515</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.34342105263157896</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.34211578947368421</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0.38157368421052629</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="2"/>
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.51197105263157894</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.46842105263157896</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.35338947368421048</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0.37280263157894744</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="2"/>
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.39302941176470585</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.32205882352941173</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0.29412058823529419</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0.28431470588235291</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="G56" s="8">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.50957105263157898</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.28573157894736834</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0.35526578947368415</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.30907666666666672</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.22381333333333334</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.3111133333333333</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="2"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.33730263157894741</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.2868421052631579</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.27444210526315793</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0.35964999999999991</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F59" s="8">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="G59" s="8">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.38889047619047618</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.25596190476190478</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.2698523809523809</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="2"/>
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.39284761904761906</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0.32380952380952377</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="2"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.20487500000000008</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.24305416666666663</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="2"/>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0.47500500000000001</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.37291500000000005</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.266675</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="2"/>
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="F63" s="8">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.31730384615384616</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.25320384615384622</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.25639999999999996</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="2"/>
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.61389000000000005</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.40694333333333332</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.27778666666666668</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0.39333333333333337</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="2"/>
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.54166999999999998</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.38472333333333331</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.37221666666666664</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="2"/>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" ref="E66:K69" si="3">IFERROR(AVERAGEIFS(E$2:E$31,$C$2:$C$31,$C66,$D$2:$D$31,$D66),"")</f>
+        <v>0.81789087840114805</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17215179585205259</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="3"/>
+        <v>9.9573257467994308E-3</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.4587954992165908</v>
+      </c>
+      <c r="I66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.26600930186576849</v>
+      </c>
+      <c r="J66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18385090999450951</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25154207193766526</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.82419739465206654</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17580260534793352</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.55617830237059929</v>
+      </c>
+      <c r="I67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25878897340840473</v>
+      </c>
+      <c r="J67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.19239778339328456</v>
+      </c>
+      <c r="K67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.2890712046574116</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.65700115750425347</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31929631221426891</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="3"/>
+        <v>2.370253028147765E-2</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.47618902222902609</v>
+      </c>
+      <c r="I68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.36190696607105272</v>
+      </c>
+      <c r="J68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31060890796193036</v>
+      </c>
+      <c r="K68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.35590913149146891</v>
+      </c>
+      <c r="L68" s="8">
+        <f t="shared" si="2"/>
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.72579801151229728</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.26739926739926739</v>
+      </c>
+      <c r="G69" s="8">
+        <f t="shared" si="3"/>
+        <v>6.8027210884353739E-3</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.42565813448456308</v>
+      </c>
+      <c r="I69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.30578891679748832</v>
+      </c>
+      <c r="J69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27826994897959179</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3367974882260597</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="2"/>
         <v>0.33700000000000002</v>
       </c>
     </row>

--- a/src/pages/data/data_dia_2024.xlsx
+++ b/src/pages/data/data_dia_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03459c2b1820bce1/Documentos/Proyect_Phyton/Proyect_multi_page/src/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5EE33713-D912-4866-B300-568C29DC986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F563BE1-97E8-4E9B-B701-58AA8849B36A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5EE33713-D912-4866-B300-568C29DC986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC75661-867A-47C9-8705-933DFF205D9D}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-795" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dia_mat" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="38">
   <si>
     <t>CURSO</t>
   </si>
@@ -152,18 +152,19 @@
     <t>FIN</t>
   </si>
   <si>
-    <t>PERIODO</t>
+    <t>TIEMPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +205,15 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -275,10 +289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,9 +337,37 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +736,7 @@
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="16">
         <v>2024</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -705,7 +748,7 @@
       <c r="E2" s="8">
         <v>0.64864864864864868</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="15">
         <v>0.32432432432432434</v>
       </c>
       <c r="G2" s="8">
@@ -732,7 +775,7 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="16">
         <v>2024</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -771,7 +814,7 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="16">
         <v>2024</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -810,7 +853,7 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="16">
         <v>2024</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -849,7 +892,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="16">
         <v>2024</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -888,7 +931,7 @@
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="16">
         <v>2024</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -927,7 +970,7 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="16">
         <v>2024</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -966,7 +1009,7 @@
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1005,7 +1048,7 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1044,7 +1087,7 @@
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1083,7 +1126,7 @@
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1122,7 +1165,7 @@
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1161,7 +1204,7 @@
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1200,7 +1243,7 @@
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1239,7 +1282,7 @@
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1278,7 +1321,7 @@
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1317,7 +1360,7 @@
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="16">
         <v>2024</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1356,7 +1399,7 @@
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="16">
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1395,7 +1438,7 @@
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="16">
         <v>2024</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1434,7 +1477,7 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="16">
         <v>2024</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1473,7 +1516,7 @@
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="16">
         <v>2024</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1512,7 +1555,7 @@
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="16">
         <v>2024</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1551,7 +1594,7 @@
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="16">
         <v>2024</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1590,7 +1633,7 @@
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="16">
         <v>2024</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1629,7 +1672,7 @@
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="16">
         <v>2024</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1668,7 +1711,7 @@
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="16">
         <v>2024</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1707,7 +1750,7 @@
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="16">
         <v>2024</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1746,7 +1789,7 @@
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="16">
         <v>2024</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1785,7 +1828,7 @@
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="16">
         <v>2024</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1824,7 +1867,7 @@
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="16">
         <v>2024</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1863,7 +1906,7 @@
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="16">
         <v>2024</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1909,7 +1952,7 @@
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="16">
         <v>2024</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1955,7 +1998,7 @@
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="16">
         <v>2024</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2001,7 +2044,7 @@
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="16">
         <v>2024</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2047,7 +2090,7 @@
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="16">
         <v>2025</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2086,7 +2129,7 @@
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="16">
         <v>2025</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -2125,7 +2168,7 @@
       <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="16">
         <v>2025</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2164,7 +2207,7 @@
       <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="16">
         <v>2025</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2203,7 +2246,7 @@
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="16">
         <v>2025</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2242,7 +2285,7 @@
       <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="16">
         <v>2025</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -2281,7 +2324,7 @@
       <c r="A42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="16">
         <v>2025</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -2320,7 +2363,7 @@
       <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="16">
         <v>2025</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2359,7 +2402,7 @@
       <c r="A44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="16">
         <v>2025</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2398,7 +2441,7 @@
       <c r="A45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="16">
         <v>2025</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2437,7 +2480,7 @@
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="16">
         <v>2025</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2476,7 +2519,7 @@
       <c r="A47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="16">
         <v>2025</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2515,7 +2558,7 @@
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="16">
         <v>2025</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2554,7 +2597,7 @@
       <c r="A49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="16">
         <v>2025</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2593,7 +2636,7 @@
       <c r="A50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="16">
         <v>2025</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -2632,7 +2675,7 @@
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="16">
         <v>2025</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -2671,7 +2714,7 @@
       <c r="A52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="16">
         <v>2025</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -2710,7 +2753,7 @@
       <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="16">
         <v>2025</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -2749,7 +2792,7 @@
       <c r="A54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="16">
         <v>2025</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2788,7 +2831,7 @@
       <c r="A55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="16">
         <v>2025</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2827,7 +2870,7 @@
       <c r="A56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="16">
         <v>2025</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -2866,7 +2909,7 @@
       <c r="A57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="16">
         <v>2025</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -2905,7 +2948,7 @@
       <c r="A58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="16">
         <v>2025</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -2944,7 +2987,7 @@
       <c r="A59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="16">
         <v>2025</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2983,7 +3026,7 @@
       <c r="A60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="16">
         <v>2025</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -3022,7 +3065,7 @@
       <c r="A61" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="16">
         <v>2025</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -3061,7 +3104,7 @@
       <c r="A62" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="16">
         <v>2025</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3100,7 +3143,7 @@
       <c r="A63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="16">
         <v>2025</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -3139,7 +3182,7 @@
       <c r="A64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="16">
         <v>2025</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -3178,7 +3221,7 @@
       <c r="A65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="16">
         <v>2025</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -3217,7 +3260,7 @@
       <c r="A66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="16">
         <v>2025</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -3263,7 +3306,7 @@
       <c r="A67" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="16">
         <v>2025</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -3309,7 +3352,7 @@
       <c r="A68" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="16">
         <v>2025</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -3355,7 +3398,7 @@
       <c r="A69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="16">
         <v>2025</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -3407,1206 +3450,2560 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="B2" s="16">
+        <v>2024</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>0.65517241379310343</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>0.34482758620689657</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>0.78448275862068972</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>0.6699448275862071</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>0.62068965517241381</v>
       </c>
-      <c r="J2" s="8">
-        <f>IFERROR(ROUND(AVERAGE(G2:I2),3),"")</f>
+      <c r="K2" s="8">
+        <f>IFERROR(ROUND(AVERAGE(H2:J2),3),"")</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
+      <c r="B3" s="16">
+        <v>2024</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>0.67647058823529416</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>0.26470588235294118</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>0.81617647058823539</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>0.67507352941176479</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>0.65441176470588236</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J35" si="0">IFERROR(ROUND(AVERAGE(G3:I3),3),"")</f>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K35" si="0">IFERROR(ROUND(AVERAGE(H3:J3),3),"")</f>
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
+      <c r="B4" s="16">
+        <v>2024</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>0.12820512820512819</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>0.71794871794871795</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>0.15384615384615385</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>0.71794871794871795</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>0.64345641025641043</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>0.63461538461538458</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
+      <c r="B5" s="16">
+        <v>2024</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>0.8125</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>0.125</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>0.8046875</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0.65624062500000035</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>0.5859375</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
+      <c r="B6" s="16">
+        <v>2024</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>0.69444444444444442</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>0.22222222222222221</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>0.76388888888888884</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>0.66666111111111126</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>0.64444444444444438</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+      <c r="B7" s="16">
+        <v>2024</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>0.26470588235294118</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>0.58823529411764708</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>0.14705882352941177</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>0.69852941176470595</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>0.58262941176470606</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>0.48382352941176471</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
+      <c r="B8" s="16">
+        <v>2024</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>0.1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>0.70833333333333326</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>0.57777666666666694</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>0.51666666666666661</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
+      <c r="B9" s="16">
+        <v>2024</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>0.18181818181818182</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>0.72727272727272729</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>0.68939393939393934</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>0.5483393939393939</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>0.54545454545454541</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <f t="shared" si="0"/>
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+      <c r="B10" s="16">
+        <v>2024</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>0.24</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>0.2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>0.69</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>0.6</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <f t="shared" si="0"/>
         <v>0.623</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+      <c r="B11" s="16">
+        <v>2024</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>0.10714285714285714</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>0.75</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>0.73</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>0.61</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>0.53</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <f t="shared" si="0"/>
         <v>0.623</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
+      <c r="B12" s="16">
+        <v>2024</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>0.73</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>0.44</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
+      <c r="B13" s="16">
+        <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>0.22222222222222221</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>0.7407407407407407</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>0.66</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>0.47</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
+      <c r="B14" s="16">
+        <v>2024</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>0.12</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>0.88</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>0.78</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>0.44</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
+      <c r="B15" s="16">
+        <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>0.61290322580645162</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>0.29032258064516131</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>0.82</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>0.74</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>0.64</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <f t="shared" si="0"/>
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
+      <c r="B16" s="16">
+        <v>2024</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>0.64516129032258063</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>0.29032258064516131</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>0.89</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>0.73</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>0.68</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <f t="shared" si="0"/>
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
+      <c r="B17" s="16">
+        <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>0.10344827586206896</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>0.75862068965517238</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>0.13793103448275862</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>0.9568965517241379</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>0.61083448275862084</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>0.52586206896551724</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <f t="shared" si="0"/>
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
+      <c r="B18" s="16">
+        <v>2024</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>0.1388888888888889</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>0.63888888888888884</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>0.22222222222222221</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>0.89583333333333326</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>0.65872500000000012</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>0.54583333333333339</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
+      <c r="B19" s="16">
+        <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>0.13513513513513514</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>0.6216216216216216</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>0.24324324324324326</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>0.93918918918918914</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>0.6241945945945947</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>0.54594594594594592</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <f t="shared" si="0"/>
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
+      <c r="B20" s="16">
+        <v>2024</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>0.8529411764705882</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>0.92647058823529405</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>0.59944117647058826</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>0.50882352941176467</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <f t="shared" si="0"/>
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
+      <c r="B21" s="16">
+        <v>2024</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>0.15151515151515152</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>0.75757575757575757</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>0.75757575757575746</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>0.60028181818181825</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>0.43939393939393939</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <f t="shared" si="0"/>
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
+      <c r="B22" s="16">
+        <v>2024</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>0.18421052631578946</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>0.57894736842105265</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>0.23684210526315788</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>0.88815789473684204</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>0.61778157894736863</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>0.54605263157894735</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <f t="shared" si="0"/>
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
+      <c r="B23" s="16">
+        <v>2024</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>0.34482758620689657</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>0.58620689655172409</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>0.81896551724137934</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>0.48768275862068977</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>0.39137931034482759</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
+      <c r="B24" s="16">
+        <v>2024</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>0.60606060606060608</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>0.76515151515151514</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>0.47330606060606051</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>0.34848484848484851</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
+      <c r="B25" s="16">
+        <v>2024</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>0.25</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>0.80208333333333326</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>0.54339999999999999</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>0.66667499999999991</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
+      <c r="B26" s="16">
+        <v>2024</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>0.125</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>0.75</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>0.125</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>0.72916666666666674</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>0.56770833333333337</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>0.58900833333333347</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <f t="shared" si="0"/>
         <v>0.629</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>21</v>
+      <c r="B27" s="16">
+        <v>2024</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>0.25</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>0.75</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>0.71250000000000002</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>0.50625999999999993</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>0.40909499999999993</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <f t="shared" si="0"/>
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
+      <c r="B28" s="16">
+        <v>2024</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>0.51851851851851849</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>0.40740740740740738</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>0.42130000000000012</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>0.48653703703703705</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>0.497</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>21</v>
+      <c r="B29" s="16">
+        <v>2024</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>0.26666666666666666</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>0.73333333333333328</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>0.73333333333333328</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>0.49860333333333323</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>0.43029999999999996</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <f t="shared" si="0"/>
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>21</v>
+      <c r="B30" s="16">
+        <v>2024</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>0.73333333333333328</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>0.2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <v>0.84166666666666667</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>0.63749999999999996</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>0.71969333333333352</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <f t="shared" si="0"/>
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>21</v>
+      <c r="B31" s="16">
+        <v>2024</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>0.74193548387096775</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>0.19354838709677419</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>0.89516129032258063</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>0.63575806451612904</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>0.70235806451612925</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <f t="shared" si="0"/>
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
+      <c r="B32" s="16">
+        <v>2024</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32:I35" si="1">IFERROR(AVERAGEIFS(D$2:D$31,$B$2:$B$31,$B32,$C$2:$C$31,$C32),"")</f>
+      <c r="E32" s="8">
+        <f t="shared" ref="E32:J35" si="1">IFERROR(AVERAGEIFS(E$2:E$31,$C$2:$C$31,$C32,$D$2:$D$31,$D32),"")</f>
         <v>0.10992325689016866</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <f t="shared" si="1"/>
         <v>0.71317218989315845</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>0.17690455321667287</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="1"/>
         <v>0.74793012756731381</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="1"/>
         <v>0.62751524696703265</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <f t="shared" si="1"/>
         <v>0.58575543630888771</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="0"/>
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>21</v>
+      <c r="B33" s="16">
+        <v>2024</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <f t="shared" si="1"/>
         <v>0.14533172408748446</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F33" s="8">
         <f t="shared" si="1"/>
         <v>0.71744837002901529</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <f t="shared" si="1"/>
         <v>0.13721990588350036</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H33" s="8">
         <f t="shared" si="1"/>
         <v>0.75714285714285712</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <f t="shared" si="1"/>
         <v>0.62571428571428578</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <f t="shared" si="1"/>
         <v>0.53999999999999992</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <f t="shared" si="0"/>
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
+      <c r="B34" s="16">
+        <v>2024</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="1"/>
         <v>0.18494927392186386</v>
       </c>
-      <c r="E34" s="8">
+      <c r="F34" s="8">
         <f t="shared" si="1"/>
         <v>0.67510787565567643</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="1"/>
         <v>0.13994285042245969</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="1"/>
         <v>0.8685300433984311</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <f t="shared" si="1"/>
         <v>0.58403093377246762</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="1"/>
         <v>0.48147195093239054</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <f t="shared" si="0"/>
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
+      <c r="B35" s="16">
+        <v>2024</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <f t="shared" si="1"/>
         <v>0.22019542584058713</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>0.66538231780167256</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <f t="shared" si="1"/>
         <v>0.11442225635774024</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <f t="shared" si="1"/>
         <v>0.75674923195084498</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <f t="shared" si="1"/>
         <v>0.54436139016897078</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <f t="shared" si="1"/>
         <v>0.57195239545997623</v>
       </c>
-      <c r="J35" s="8">
-        <f t="shared" si="0"/>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.78448275862068972</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.6699448275862071</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="K36" s="8">
+        <f>IFERROR(ROUND(AVERAGE(H36:J36),3),"")</f>
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.81617647058823539</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.67507352941176479</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.65441176470588236</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" ref="K37:K69" si="2">IFERROR(ROUND(AVERAGE(H37:J37),3),"")</f>
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.64345641025641043</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.8046875</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.65624062500000035</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.5859375</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.66666111111111126</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.64444444444444438</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.69852941176470595</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.58262941176470606</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.48382352941176471</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="2"/>
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G42" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.57777666666666694</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.51666666666666661</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G43" s="8">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.68939393939393934</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.5483393939393939</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="2"/>
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="2"/>
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="8">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="8">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.61083448275862084</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.65872500000000012</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.54583333333333339</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.93918918918918914</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.6241945945945947</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.54594594594594592</v>
+      </c>
+      <c r="K53" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="8">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="G54" s="8">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.92647058823529405</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.59944117647058826</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.50882352941176467</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="G55" s="8">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.75757575757575746</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.60028181818181825</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="2"/>
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.61778157894736863</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.54605263157894735</v>
+      </c>
+      <c r="K56" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G57" s="8">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.81896551724137934</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.48768275862068977</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.39137931034482759</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="2"/>
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="G58" s="8">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.76515151515151514</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.47330606060606051</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.34848484848484851</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="2"/>
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.66667499999999991</v>
+      </c>
+      <c r="K59" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.56770833333333337</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.58900833333333347</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" si="2"/>
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.50625999999999993</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.40909499999999993</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="2"/>
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="G62" s="8">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.42130000000000012</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.48653703703703705</v>
+      </c>
+      <c r="K62" s="8">
+        <f t="shared" si="2"/>
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.49860333333333323</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.43029999999999996</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="2"/>
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.84166666666666667</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.71969333333333352</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="8">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.89516129032258063</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.63575806451612904</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.70235806451612925</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" ref="E66:J69" si="3">IFERROR(AVERAGEIFS(E$2:E$31,$C$2:$C$31,$C66,$D$2:$D$31,$D66),"")</f>
+        <v>0.10992325689016866</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.71317218989315845</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17690455321667287</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.74793012756731381</v>
+      </c>
+      <c r="I66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.62751524696703265</v>
+      </c>
+      <c r="J66" s="8">
+        <f t="shared" si="3"/>
+        <v>0.58575543630888771</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="2"/>
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14533172408748446</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.71744837002901529</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13721990588350036</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285712</v>
+      </c>
+      <c r="I67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.62571428571428578</v>
+      </c>
+      <c r="J67" s="8">
+        <f t="shared" si="3"/>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="K67" s="8">
+        <f t="shared" si="2"/>
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18494927392186386</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.67510787565567643</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13994285042245969</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.8685300433984311</v>
+      </c>
+      <c r="I68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.58403093377246762</v>
+      </c>
+      <c r="J68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.48147195093239054</v>
+      </c>
+      <c r="K68" s="8">
+        <f t="shared" si="2"/>
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.22019542584058713</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.66538231780167256</v>
+      </c>
+      <c r="G69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11442225635774024</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75674923195084498</v>
+      </c>
+      <c r="I69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.54436139016897078</v>
+      </c>
+      <c r="J69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.57195239545997623</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" si="2"/>
         <v>0.624</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J24" formulaRange="1"/>
+    <ignoredError sqref="K2:K24" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
